--- a/result/NCDC_weather_data/stations_imputed/58457099999.xlsx
+++ b/result/NCDC_weather_data/stations_imputed/58457099999.xlsx
@@ -577,7 +577,9 @@
       <c r="Q2" t="n">
         <v>0</v>
       </c>
-      <c r="R2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>0.01086193732193732</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -631,7 +633,9 @@
       <c r="Q3" t="n">
         <v>0</v>
       </c>
-      <c r="R3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>0.01086193732193732</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -685,7 +689,9 @@
       <c r="Q4" t="n">
         <v>0</v>
       </c>
-      <c r="R4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>0.01086193732193732</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -739,7 +745,9 @@
       <c r="Q5" t="n">
         <v>0.000254</v>
       </c>
-      <c r="R5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>0.01086193732193732</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -793,7 +801,9 @@
       <c r="Q6" t="n">
         <v>0.000508</v>
       </c>
-      <c r="R6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0.01086193732193732</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -847,7 +857,9 @@
       <c r="Q7" t="n">
         <v>0</v>
       </c>
-      <c r="R7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>0.01086193732193732</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -901,7 +913,9 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
-      <c r="R8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0.01086193732193732</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -955,7 +969,9 @@
       <c r="Q9" t="n">
         <v>0.00381</v>
       </c>
-      <c r="R9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>0.01086193732193732</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1009,7 +1025,9 @@
       <c r="Q10" t="n">
         <v>0.001524</v>
       </c>
-      <c r="R10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>0.01086193732193732</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1063,7 +1081,9 @@
       <c r="Q11" t="n">
         <v>0.002794</v>
       </c>
-      <c r="R11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>0.01086193732193732</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1117,7 +1137,9 @@
       <c r="Q12" t="n">
         <v>0.000254</v>
       </c>
-      <c r="R12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>0.01086193732193732</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1171,7 +1193,9 @@
       <c r="Q13" t="n">
         <v>0</v>
       </c>
-      <c r="R13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>0.01086193732193732</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1225,7 +1249,9 @@
       <c r="Q14" t="n">
         <v>0.000508</v>
       </c>
-      <c r="R14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>0.01086193732193732</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1279,7 +1305,9 @@
       <c r="Q15" t="n">
         <v>0.00254</v>
       </c>
-      <c r="R15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>0.01086193732193732</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1333,7 +1361,9 @@
       <c r="Q16" t="n">
         <v>0.000508</v>
       </c>
-      <c r="R16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>0.01086193732193732</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1387,7 +1417,9 @@
       <c r="Q17" t="n">
         <v>0</v>
       </c>
-      <c r="R17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>0.01086193732193732</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1441,7 +1473,9 @@
       <c r="Q18" t="n">
         <v>0</v>
       </c>
-      <c r="R18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>0.01086193732193732</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1495,7 +1529,9 @@
       <c r="Q19" t="n">
         <v>0</v>
       </c>
-      <c r="R19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>0.01086193732193732</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1549,7 +1585,9 @@
       <c r="Q20" t="n">
         <v>0</v>
       </c>
-      <c r="R20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>0.01086193732193732</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1603,7 +1641,9 @@
       <c r="Q21" t="n">
         <v>0</v>
       </c>
-      <c r="R21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>0.01086193732193732</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1657,7 +1697,9 @@
       <c r="Q22" t="n">
         <v>0.001016</v>
       </c>
-      <c r="R22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>0.01086193732193732</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1711,7 +1753,9 @@
       <c r="Q23" t="n">
         <v>0.01524</v>
       </c>
-      <c r="R23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>0.01086193732193732</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1765,7 +1809,9 @@
       <c r="Q24" t="n">
         <v>0.02870199999999999</v>
       </c>
-      <c r="R24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>0.01086193732193732</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1819,7 +1865,9 @@
       <c r="Q25" t="n">
         <v>0.003302</v>
       </c>
-      <c r="R25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v>0.01086193732193732</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1873,7 +1921,9 @@
       <c r="Q26" t="n">
         <v>0.007365999999999999</v>
       </c>
-      <c r="R26" t="inlineStr"/>
+      <c r="R26" t="n">
+        <v>0.01086193732193732</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1927,7 +1977,9 @@
       <c r="Q27" t="n">
         <v>0.027432</v>
       </c>
-      <c r="R27" t="inlineStr"/>
+      <c r="R27" t="n">
+        <v>0.01086193732193732</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1981,7 +2033,9 @@
       <c r="Q28" t="n">
         <v>0.019812</v>
       </c>
-      <c r="R28" t="inlineStr"/>
+      <c r="R28" t="n">
+        <v>0.01086193732193732</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
